--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814AC046-C84E-419B-8518-723250321C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57422E6-E68F-46BF-B75D-A5F69F936035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,84 +25,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>iowa st</t>
   </si>
   <si>
-    <t>cinnicinati</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>A&amp;M</t>
-  </si>
-  <si>
-    <t>tennesse</t>
-  </si>
-  <si>
     <t>kansas</t>
   </si>
   <si>
-    <t>oklahoma st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flordia </t>
-  </si>
-  <si>
-    <t>s carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">byu </t>
-  </si>
-  <si>
-    <t>tcu</t>
-  </si>
-  <si>
     <t xml:space="preserve">auburn </t>
   </si>
   <si>
-    <t>lsu</t>
-  </si>
-  <si>
     <t>arizona</t>
   </si>
   <si>
-    <t>wash st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kansas st </t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>notre dame</t>
-  </si>
-  <si>
-    <t>usc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miami </t>
-  </si>
-  <si>
-    <t>n carolina</t>
-  </si>
-  <si>
-    <t>missouri</t>
-  </si>
-  <si>
     <t>kentucky</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s carolina </t>
+  </si>
+  <si>
+    <t>a&amp;m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">houston </t>
+  </si>
+  <si>
+    <t>kansas st</t>
+  </si>
+  <si>
+    <t>w virginia</t>
+  </si>
+  <si>
+    <t>ucf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">georgia </t>
+  </si>
+  <si>
+    <t>florida</t>
+  </si>
+  <si>
+    <t>byu</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oregon </t>
+  </si>
+  <si>
+    <t>utah</t>
+  </si>
+  <si>
+    <t>duke</t>
+  </si>
+  <si>
+    <t>louisiville</t>
+  </si>
+  <si>
+    <t>miss st</t>
+  </si>
+  <si>
+    <t>baylor</t>
+  </si>
+  <si>
+    <t>tennessee</t>
+  </si>
+  <si>
+    <t>ohio st</t>
+  </si>
+  <si>
+    <t>wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cinncinatti </t>
+  </si>
+  <si>
+    <t>ok st</t>
+  </si>
+  <si>
+    <t>oregon st</t>
   </si>
   <si>
     <t>away</t>
@@ -433,170 +439,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45213.458333333336</v>
-      </c>
-      <c r="B2" t="s">
+        <v>45227.458333333336</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45227.458333333336</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45227.458333333336</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45227.458333333336</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45227.604166666664</v>
+      </c>
+      <c r="B6">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45227.604166666664</v>
+      </c>
+      <c r="B7">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45227.604166666664</v>
+      </c>
+      <c r="B8">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45227.604166666664</v>
+      </c>
+      <c r="B9">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45227.604166666664</v>
+      </c>
+      <c r="B10">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45227.604166666664</v>
+      </c>
+      <c r="B11">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45213.458333333336</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45213.604166666664</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45227.75</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45213.604166666664</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45213.604166666664</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45213.604166666664</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45213.604166666664</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45213.75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45213.75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45213.75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45213.770833333336</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45213.770833333336</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
+        <v>45227.770833333336</v>
+      </c>
+      <c r="B13">
+        <v>630</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45213.770833333336</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
+        <v>45227.791666666664</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45227.895833333336</v>
+      </c>
+      <c r="B15">
+        <v>930</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\cfpicks\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57422E6-E68F-46BF-B75D-A5F69F936035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F3F95B-0433-44F2-8D71-4D648C407539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="1335" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,90 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>iowa st</t>
-  </si>
-  <si>
-    <t>kansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auburn </t>
-  </si>
-  <si>
-    <t>arizona</t>
-  </si>
-  <si>
-    <t>kentucky</t>
-  </si>
-  <si>
-    <t>ou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s carolina </t>
-  </si>
-  <si>
-    <t>a&amp;m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">houston </t>
-  </si>
-  <si>
-    <t>kansas st</t>
-  </si>
-  <si>
-    <t>w virginia</t>
-  </si>
-  <si>
-    <t>ucf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">georgia </t>
-  </si>
-  <si>
-    <t>florida</t>
-  </si>
-  <si>
-    <t>byu</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oregon </t>
-  </si>
-  <si>
-    <t>utah</t>
-  </si>
-  <si>
-    <t>duke</t>
-  </si>
-  <si>
-    <t>louisiville</t>
-  </si>
-  <si>
-    <t>miss st</t>
-  </si>
-  <si>
-    <t>baylor</t>
-  </si>
-  <si>
-    <t>tennessee</t>
-  </si>
-  <si>
-    <t>ohio st</t>
-  </si>
-  <si>
-    <t>wisconsin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cinncinatti </t>
-  </si>
-  <si>
-    <t>ok st</t>
-  </si>
-  <si>
-    <t>oregon st</t>
-  </si>
-  <si>
     <t>away</t>
   </si>
   <si>
@@ -118,6 +34,90 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>A&amp;M</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missouri </t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYU </t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Miss St</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Arizona</t>
   </si>
 </sst>
 </file>
@@ -442,12 +442,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -456,209 +456,209 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45227.458333333336</v>
+        <v>45232.75</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45227.458333333336</v>
+        <v>45234.458333333336</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45227.458333333336</v>
+        <v>45234.458333333336</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45227.458333333336</v>
+        <v>45234.458333333336</v>
       </c>
       <c r="B5">
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45227.604166666664</v>
+        <v>45234.458333333336</v>
       </c>
       <c r="B6">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45227.604166666664</v>
+        <v>45234.604166666664</v>
       </c>
       <c r="B7">
         <v>230</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45227.604166666664</v>
+        <v>45234.604166666664</v>
       </c>
       <c r="B8">
         <v>230</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45227.604166666664</v>
+        <v>45234.604166666664</v>
       </c>
       <c r="B9">
         <v>230</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45227.604166666664</v>
+        <v>45234.75</v>
       </c>
       <c r="B10">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45227.604166666664</v>
+        <v>45234.75</v>
       </c>
       <c r="B11">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45227.75</v>
+        <v>45234.770833333336</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>630</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45227.770833333336</v>
+        <v>45234.770833333336</v>
       </c>
       <c r="B13">
         <v>630</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45227.791666666664</v>
+        <v>45234.78125</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>645</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45227.895833333336</v>
+        <v>45234.895833333336</v>
       </c>
       <c r="B15">
         <v>930</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F3F95B-0433-44F2-8D71-4D648C407539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DC41D-88D3-4B50-99E3-277C80EDD091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="1335" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,33 +53,18 @@
     <t>Texas Tech</t>
   </si>
   <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>A&amp;M</t>
-  </si>
-  <si>
     <t>Ole Miss</t>
   </si>
   <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t xml:space="preserve">Missouri </t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -81,18 +77,9 @@
     <t>Houston</t>
   </si>
   <si>
-    <t>Baylor</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BYU </t>
-  </si>
-  <si>
     <t>West Virginia</t>
   </si>
   <si>
@@ -105,19 +92,43 @@
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Miss St</t>
-  </si>
-  <si>
     <t>LSU</t>
   </si>
   <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Arizona</t>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Cinncinnati</t>
+  </si>
+  <si>
+    <t>Oregon</t>
   </si>
 </sst>
 </file>
@@ -442,19 +453,19 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -465,197 +476,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45232.75</v>
+        <v>45241.458333333336</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45234.458333333336</v>
+        <v>45241.458333333336</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45234.458333333336</v>
+        <v>45241.458333333336</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45241.583333333336</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45241.583333333336</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45241.583333333336</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45241.583333333336</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45241.625</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45234.458333333336</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45234.458333333336</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45234.604166666664</v>
-      </c>
-      <c r="B7">
-        <v>230</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45234.604166666664</v>
-      </c>
-      <c r="B8">
-        <v>230</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45234.604166666664</v>
-      </c>
-      <c r="B9">
-        <v>230</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45234.75</v>
+        <v>45241.75</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45234.75</v>
+        <v>45241.75</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45234.770833333336</v>
+        <v>45241.75</v>
       </c>
       <c r="B12">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45234.770833333336</v>
+        <v>45241.770833333336</v>
       </c>
       <c r="B13">
         <v>630</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45234.78125</v>
+        <v>45241.770833333336</v>
       </c>
       <c r="B14">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45234.895833333336</v>
+        <v>45241.875</v>
       </c>
       <c r="B15">
-        <v>930</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DC41D-88D3-4B50-99E3-277C80EDD091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D85DEF2-BD0C-4FA8-A3B8-A23AD6494B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,88 +47,88 @@
     <t>date</t>
   </si>
   <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
     <t>Miami</t>
   </si>
   <si>
-    <t>Florida St</t>
-  </si>
-  <si>
     <t>Utah</t>
   </si>
   <si>
     <t>Tennessee</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Cinncinnati</t>
-  </si>
-  <si>
-    <t>Oregon</t>
+    <t>colorado</t>
+  </si>
+  <si>
+    <t>washington st</t>
+  </si>
+  <si>
+    <t>louisville</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georiga </t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>ucla</t>
+  </si>
+  <si>
+    <t>usc</t>
+  </si>
+  <si>
+    <t>baylor</t>
+  </si>
+  <si>
+    <t>tcu</t>
+  </si>
+  <si>
+    <t>oklahoma st</t>
+  </si>
+  <si>
+    <t>houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ucf</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>kansas</t>
+  </si>
+  <si>
+    <t>kansas st</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>oregon st</t>
+  </si>
+  <si>
+    <t>florida</t>
+  </si>
+  <si>
+    <t>missouri</t>
+  </si>
+  <si>
+    <t>kentucky</t>
+  </si>
+  <si>
+    <t>s carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texas </t>
+  </si>
+  <si>
+    <t>iowa st</t>
   </si>
 </sst>
 </file>
@@ -453,19 +453,19 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -476,197 +476,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45241.458333333336</v>
+        <v>45247.895833333336</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>930</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45241.458333333336</v>
+        <v>45248.458333333336</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45241.458333333336</v>
+        <v>45248.5625</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45248.604166666664</v>
+      </c>
+      <c r="B5">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45248.604166666664</v>
+      </c>
+      <c r="B6">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45248.604166666664</v>
+      </c>
+      <c r="B7">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45241.583333333336</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45241.583333333336</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45248.604166666664</v>
+      </c>
+      <c r="B8">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45241.583333333336</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45241.583333333336</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45241.625</v>
+        <v>45248.625</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45241.75</v>
+        <v>45248.666666666664</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45241.75</v>
+        <v>45248.75</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45241.75</v>
+        <v>45248.770833333336</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>630</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45241.770833333336</v>
+        <v>45248.770833333336</v>
       </c>
       <c r="B13">
         <v>630</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45241.770833333336</v>
+        <v>45248.770833333336</v>
       </c>
       <c r="B14">
         <v>630</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45241.875</v>
+        <v>45248.791666666664</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D85DEF2-BD0C-4FA8-A3B8-A23AD6494B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9E09B-F3C1-4EAE-86E6-D7C86B96B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="345" windowWidth="24915" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,63 +47,18 @@
     <t>date</t>
   </si>
   <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>colorado</t>
-  </si>
-  <si>
     <t>washington st</t>
   </si>
   <si>
     <t>louisville</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georiga </t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>ucla</t>
-  </si>
-  <si>
-    <t>usc</t>
-  </si>
-  <si>
-    <t>baylor</t>
-  </si>
-  <si>
     <t>tcu</t>
   </si>
   <si>
     <t>oklahoma st</t>
   </si>
   <si>
-    <t>houston</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ucf</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>kansas</t>
-  </si>
-  <si>
     <t>kansas st</t>
   </si>
   <si>
@@ -116,19 +71,64 @@
     <t>florida</t>
   </si>
   <si>
-    <t>missouri</t>
-  </si>
-  <si>
-    <t>kentucky</t>
-  </si>
-  <si>
     <t>s carolina</t>
   </si>
   <si>
-    <t xml:space="preserve">texas </t>
-  </si>
-  <si>
     <t>iowa st</t>
+  </si>
+  <si>
+    <t>ole miss</t>
+  </si>
+  <si>
+    <t>miss st</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missouri </t>
+  </si>
+  <si>
+    <t>arkansas</t>
+  </si>
+  <si>
+    <t>oregon</t>
+  </si>
+  <si>
+    <t>ohio st</t>
+  </si>
+  <si>
+    <t>michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kentucky </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a&amp;m </t>
+  </si>
+  <si>
+    <t>lsu</t>
+  </si>
+  <si>
+    <t>alabama</t>
+  </si>
+  <si>
+    <t>auburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byu </t>
+  </si>
+  <si>
+    <t>florida st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clemson </t>
+  </si>
+  <si>
+    <t>texas tech</t>
   </si>
 </sst>
 </file>
@@ -450,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -478,199 +478,208 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45247.895833333336</v>
+        <v>45253.770833333336</v>
       </c>
       <c r="B2">
-        <v>930</v>
+        <v>630</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45248.458333333336</v>
+        <v>45254.458333333336</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45248.5625</v>
+        <v>45254.625</v>
       </c>
       <c r="B4">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45248.604166666664</v>
+        <v>45254.770833333336</v>
       </c>
       <c r="B5">
-        <v>230</v>
+        <v>630</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45248.604166666664</v>
+        <v>45254.8125</v>
       </c>
       <c r="B6">
-        <v>230</v>
+        <v>730</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45248.604166666664</v>
+        <v>45255.458333333336</v>
       </c>
       <c r="B7">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45248.604166666664</v>
+        <v>45255.458333333336</v>
       </c>
       <c r="B8">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45248.625</v>
+        <v>45255.458333333336</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45248.666666666664</v>
+        <v>45255.604166666664</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45248.75</v>
+        <v>45255.604166666664</v>
       </c>
       <c r="B11">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45248.770833333336</v>
+        <v>45255.625</v>
       </c>
       <c r="B12">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45248.770833333336</v>
+        <v>45255.75</v>
       </c>
       <c r="B13">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45248.770833333336</v>
+        <v>45255.770833333336</v>
       </c>
       <c r="B14">
         <v>630</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45248.791666666664</v>
+        <v>45255.791666666664</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9E09B-F3C1-4EAE-86E6-D7C86B96B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C90EC-9461-4E21-993E-7F0C75A1680A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="345" windowWidth="24915" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C520410-1AEF-4505-9508-9520B05892C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>date</t>
+  </si>
   <si>
     <t>away</t>
   </si>
@@ -44,91 +47,58 @@
     <t>home</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>washington st</t>
-  </si>
-  <si>
-    <t>louisville</t>
-  </si>
-  <si>
     <t>tcu</t>
   </si>
   <si>
-    <t>oklahoma st</t>
-  </si>
-  <si>
-    <t>kansas st</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>oregon st</t>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>lsu</t>
   </si>
   <si>
     <t>florida</t>
   </si>
   <si>
-    <t>s carolina</t>
-  </si>
-  <si>
-    <t>iowa st</t>
-  </si>
-  <si>
-    <t>ole miss</t>
-  </si>
-  <si>
-    <t>miss st</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
-    <t>ou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missouri </t>
-  </si>
-  <si>
-    <t>arkansas</t>
-  </si>
-  <si>
-    <t>oregon</t>
-  </si>
-  <si>
-    <t>ohio st</t>
-  </si>
-  <si>
-    <t>michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kentucky </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a&amp;m </t>
-  </si>
-  <si>
-    <t>lsu</t>
-  </si>
-  <si>
-    <t>alabama</t>
-  </si>
-  <si>
-    <t>auburn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">byu </t>
-  </si>
-  <si>
-    <t>florida st</t>
-  </si>
-  <si>
     <t xml:space="preserve">clemson </t>
   </si>
   <si>
-    <t>texas tech</t>
+    <t>unc</t>
+  </si>
+  <si>
+    <t>minnesota</t>
+  </si>
+  <si>
+    <t>colorado</t>
+  </si>
+  <si>
+    <t>georgia</t>
+  </si>
+  <si>
+    <t>penn st</t>
+  </si>
+  <si>
+    <t>colorado st</t>
+  </si>
+  <si>
+    <t>miami</t>
+  </si>
+  <si>
+    <t>notre dame</t>
+  </si>
+  <si>
+    <t>texas a&amp;m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usc </t>
+  </si>
+  <si>
+    <t>stanford</t>
+  </si>
+  <si>
+    <t>n dakota st</t>
+  </si>
+  <si>
+    <t>west virginia</t>
   </si>
 </sst>
 </file>
@@ -142,7 +112,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -198,39 +168,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,9 +233,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -298,6 +285,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,13 +363,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -374,6 +371,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -438,248 +442,160 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEA5AD2-DAFF-42F4-8541-85660954BF6E}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45253.770833333336</v>
-      </c>
-      <c r="B2">
-        <v>630</v>
+        <v>45533.791666666664</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45533.791666666664</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45534.895833333336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45535.458333333336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45535.958333333336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45535.604166666664</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45535.604166666664</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45254.458333333336</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45535.770833333336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45536.770833333336</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45254.625</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45254.770833333336</v>
-      </c>
-      <c r="B5">
-        <v>630</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45254.8125</v>
-      </c>
-      <c r="B6">
-        <v>730</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45255.458333333336</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45255.458333333336</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45255.458333333336</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45255.604166666664</v>
-      </c>
-      <c r="B10">
-        <v>230</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45255.604166666664</v>
-      </c>
-      <c r="B11">
-        <v>230</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45255.625</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45255.75</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45255.770833333336</v>
-      </c>
-      <c r="B14">
-        <v>630</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45255.791666666664</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C90EC-9461-4E21-993E-7F0C75A1680A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80ADBE1-2CB8-4A25-92B2-BD3AADE55F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C520410-1AEF-4505-9508-9520B05892C4}"/>
+    <workbookView xWindow="32115" yWindow="1995" windowWidth="21600" windowHeight="11235" xr2:uid="{8C520410-1AEF-4505-9508-9520B05892C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -47,67 +47,88 @@
     <t>home</t>
   </si>
   <si>
-    <t>tcu</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
-    <t>lsu</t>
-  </si>
-  <si>
-    <t>florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clemson </t>
-  </si>
-  <si>
-    <t>unc</t>
-  </si>
-  <si>
-    <t>minnesota</t>
-  </si>
-  <si>
-    <t>colorado</t>
-  </si>
-  <si>
-    <t>georgia</t>
-  </si>
-  <si>
-    <t>penn st</t>
-  </si>
-  <si>
-    <t>colorado st</t>
-  </si>
-  <si>
-    <t>miami</t>
-  </si>
-  <si>
-    <t>notre dame</t>
-  </si>
-  <si>
-    <t>texas a&amp;m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usc </t>
-  </si>
-  <si>
-    <t>stanford</t>
-  </si>
-  <si>
-    <t>n dakota st</t>
-  </si>
-  <si>
-    <t>west virginia</t>
+    <t xml:space="preserve">Texas </t>
+  </si>
+  <si>
+    <t>arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baylor </t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa </t>
+  </si>
+  <si>
+    <t>Iowa st</t>
+  </si>
+  <si>
+    <t>auburn</t>
+  </si>
+  <si>
+    <t>s carolina</t>
+  </si>
+  <si>
+    <t>kentucky</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee </t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke </t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>oklahoma St</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Washington St</t>
+  </si>
+  <si>
+    <t>Michigan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +160,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,21 +495,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEA5AD2-DAFF-42F4-8541-85660954BF6E}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -500,101 +521,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45533.791666666664</v>
+        <v>45541.833333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45533.791666666664</v>
+        <v>45542.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45534.895833333336</v>
+        <v>45542.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45535.458333333336</v>
+        <v>45542.604166666664</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45535.958333333336</v>
+        <v>45542.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45535.604166666664</v>
+        <v>45542.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45535.604166666664</v>
+        <v>45542.604166666664</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45535.770833333336</v>
+        <v>45542.75</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45536.770833333336</v>
+        <v>45542.770833333336</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45542.770833333336</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45542.875</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45542.875</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45542.895833333336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80ADBE1-2CB8-4A25-92B2-BD3AADE55F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64F80CD-0797-43B2-B767-F0FA52DAB05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32115" yWindow="1995" windowWidth="21600" windowHeight="11235" xr2:uid="{8C520410-1AEF-4505-9508-9520B05892C4}"/>
+    <workbookView xWindow="3765" yWindow="1920" windowWidth="21600" windowHeight="11235" xr2:uid="{8C520410-1AEF-4505-9508-9520B05892C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -47,82 +47,88 @@
     <t>home</t>
   </si>
   <si>
-    <t xml:space="preserve">Texas </t>
-  </si>
-  <si>
-    <t>arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baylor </t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa </t>
-  </si>
-  <si>
-    <t>Iowa st</t>
-  </si>
-  <si>
-    <t>auburn</t>
-  </si>
-  <si>
-    <t>s carolina</t>
-  </si>
-  <si>
-    <t>kentucky</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tennessee </t>
-  </si>
-  <si>
-    <t>NC State</t>
-  </si>
-  <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>Mississippi St</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duke </t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>oklahoma St</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Washington St</t>
   </si>
   <si>
-    <t>Michigan</t>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Oregon St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulane </t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia </t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>TCU</t>
   </si>
 </sst>
 </file>
@@ -495,16 +501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEA5AD2-DAFF-42F4-8541-85660954BF6E}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,145 +527,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45541.833333333336</v>
+        <v>45547.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45542.458333333336</v>
+        <v>45548.791666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45542.458333333336</v>
+        <v>45549.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45542.604166666664</v>
+        <v>45549.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45542.604166666664</v>
+        <v>45549.458333333336</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45542.604166666664</v>
+        <v>45549.489583333336</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45542.604166666664</v>
+        <v>45549.604166666664</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45542.75</v>
+        <v>45549.604166666664</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45542.770833333336</v>
+        <v>45549.604166666664</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45542.770833333336</v>
+        <v>45549.604166666664</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45542.875</v>
+        <v>45549.604166666664</v>
       </c>
       <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45542.875</v>
+        <v>45549.770833333336</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45542.895833333336</v>
+        <v>45549.770833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45549.770833333336</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64F80CD-0797-43B2-B767-F0FA52DAB05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DF7E1F-5E5A-4857-975D-64461CF7B009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="1920" windowWidth="21600" windowHeight="11235" xr2:uid="{8C520410-1AEF-4505-9508-9520B05892C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C520410-1AEF-4505-9508-9520B05892C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>date</t>
   </si>
@@ -50,85 +50,73 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Washington St</t>
-  </si>
-  <si>
     <t>ASU</t>
   </si>
   <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>Kansas St</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
     <t>LSU</t>
   </si>
   <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
     <t>Florida St</t>
   </si>
   <si>
-    <t>Boston College</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Oregon St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulane </t>
-  </si>
-  <si>
     <t>OU</t>
   </si>
   <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia </t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>TCU</t>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida </t>
+  </si>
+  <si>
+    <t>Mississsippi St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas </t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan </t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah </t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Tennesse</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>BYU</t>
   </si>
 </sst>
 </file>
@@ -501,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEA5AD2-DAFF-42F4-8541-85660954BF6E}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,156 +515,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45547.770833333336</v>
+        <v>45555.791666666664</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45548.791666666664</v>
+        <v>45556.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45549.458333333336</v>
+        <v>45556.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45549.458333333336</v>
+        <v>45556.604166666664</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45549.458333333336</v>
+        <v>45556.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45549.489583333336</v>
+        <v>45556.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45549.604166666664</v>
+        <v>45556.611111111109</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45549.604166666664</v>
+        <v>45556.625</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45549.604166666664</v>
+        <v>45556.75</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45549.604166666664</v>
+        <v>45556.770833333336</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45549.604166666664</v>
+        <v>45556.791666666664</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45549.770833333336</v>
+        <v>45556.895833333336</v>
       </c>
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45549.770833333336</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45549.770833333336</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DF7E1F-5E5A-4857-975D-64461CF7B009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB34656-B893-4230-9DB5-A7680465B486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C520410-1AEF-4505-9508-9520B05892C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -50,73 +50,82 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>ASU</t>
-  </si>
-  <si>
     <t>Kansas St</t>
   </si>
   <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
     <t>OU</t>
   </si>
   <si>
     <t>Illinois</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida </t>
-  </si>
-  <si>
-    <t>Mississsippi St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansas </t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michigan </t>
-  </si>
-  <si>
     <t>Auburn</t>
   </si>
   <si>
     <t>Arkansas</t>
   </si>
   <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah </t>
-  </si>
-  <si>
     <t>Oklahoma St</t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Tennesse</t>
-  </si>
-  <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>BYU</t>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYU </t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCU </t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Michigan</t>
   </si>
 </sst>
 </file>
@@ -489,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEA5AD2-DAFF-42F4-8541-85660954BF6E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,29 +524,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45555.791666666664</v>
+        <v>45562.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45556.458333333336</v>
+        <v>45563.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45556.458333333336</v>
+        <v>45563.458333333336</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -548,101 +557,123 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45556.604166666664</v>
+        <v>45563.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45556.604166666664</v>
+        <v>45563.458333333336</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45556.604166666664</v>
+        <v>45563.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45556.611111111109</v>
+        <v>45563.604166666664</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45556.625</v>
+        <v>45563.604166666664</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45556.75</v>
+        <v>45563.604166666664</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45556.770833333336</v>
+        <v>45563.604166666664</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45556.791666666664</v>
+        <v>45563.611111111109</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45556.895833333336</v>
+        <v>45563.770833333336</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45563.770833333336</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45563.875</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B560A6-94AD-478C-9C4C-CDA642B2435A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>date</t>
   </si>
@@ -25,90 +31,83 @@
     <t>home</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
     <t>Ole Miss</t>
   </si>
   <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
     <t>West Virginia</t>
   </si>
   <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
     <t>USC</t>
   </si>
   <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
     <t>Iowa St</t>
   </si>
   <si>
-    <t>UCF</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
     <t>Arizona</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Alabama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +119,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -151,28 +156,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -183,10 +187,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -224,71 +228,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -316,7 +320,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -339,11 +343,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -352,13 +356,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -368,7 +372,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -377,7 +381,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -386,7 +390,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -394,10 +398,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -462,173 +466,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="18.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45570.458333333336</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>45576.895833333336</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45577.458333333336</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45577.458333333336</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45577.604166666664</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45577.604166666664</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45577.625</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45577.75</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45577.770833333336</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45577.770833333336</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45577.78125</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45577.791666666664</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1">
-        <v>45570.458333333336</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1">
-        <v>45570.458333333336</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1">
-        <v>45570.604166666664</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1">
-        <v>45570.604166666664</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1">
-        <v>45570.625</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1">
-        <v>45570.770833333336</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1">
-        <v>45570.770833333336</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1">
-        <v>45570.770833333336</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1">
-        <v>45570.770833333336</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1">
-        <v>45570.78125</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45577.885416666664</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1">
-        <v>45570.791666666664</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1">
-        <v>45570.916666666664</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B560A6-94AD-478C-9C4C-CDA642B2435A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF7E2BF-D988-4E63-8EDB-4F598911C31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -31,63 +31,30 @@
     <t>home</t>
   </si>
   <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
     <t>West Virginia</t>
   </si>
   <si>
     <t>Tennessee</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
     <t>Arizona</t>
   </si>
   <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
     <t>OU</t>
   </si>
   <si>
-    <t>Penn St</t>
-  </si>
-  <si>
     <t>BYU</t>
   </si>
   <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
     <t>LSU</t>
   </si>
   <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
@@ -101,13 +68,58 @@
   </si>
   <si>
     <t>Alabama</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,12 +131,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -155,16 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +472,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,134 +496,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45576.895833333336</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>45583.885416666664</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45577.458333333336</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>45584.458333333336</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45577.458333333336</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>45584.458333333336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45577.604166666664</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>45584.458333333336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45577.604166666664</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>45584.489583333336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45577.625</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>45584.604166666664</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45577.75</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>45584.604166666664</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45577.770833333336</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>45584.625</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45577.770833333336</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>45584.625</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45577.78125</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>45584.635416666664</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45577.791666666664</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>45584.604166666664</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45577.885416666664</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>45584.770833333336</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45584.770833333336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45584.78125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF7E2BF-D988-4E63-8EDB-4F598911C31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C69903E-B16B-43AA-BA55-CC8C8332BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="585" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -31,45 +31,18 @@
     <t>home</t>
   </si>
   <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>S Carolina</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Oklahoma St</t>
   </si>
   <si>
@@ -79,18 +52,9 @@
     <t>Louisville</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>Auburn</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
     <t>Michigan</t>
   </si>
   <si>
@@ -106,13 +70,55 @@
     <t>Texas A&amp;M</t>
   </si>
   <si>
-    <t>Mississippi St</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
     <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Washington</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,142 +502,142 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45583.885416666664</v>
+        <v>45598.458333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45584.458333333336</v>
+        <v>45598.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45584.458333333336</v>
+        <v>45598.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45584.458333333336</v>
+        <v>45598.458333333336</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45584.489583333336</v>
+        <v>45598.489583333336</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45584.604166666664</v>
+        <v>45598.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45584.604166666664</v>
+        <v>45598.604166666664</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45584.625</v>
+        <v>45598.604166666664</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45584.625</v>
+        <v>45598.75</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45584.635416666664</v>
+        <v>45598.770833333336</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45584.604166666664</v>
+        <v>45598.770833333336</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45584.770833333336</v>
+        <v>45598.770833333336</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45584.770833333336</v>
+        <v>45598.78125</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -639,14 +645,34 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45584.78125</v>
+        <v>45598.791666666664</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45598.791666666664</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C69903E-B16B-43AA-BA55-CC8C8332BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B20222-3E84-4DDC-9A4C-EB2311799646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="585" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -31,15 +31,9 @@
     <t>home</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>S Carolina</t>
   </si>
   <si>
@@ -49,54 +43,24 @@
     <t>Miami</t>
   </si>
   <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
     <t>Texas Tech</t>
   </si>
   <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
     <t>Penn St</t>
   </si>
   <si>
     <t>Ole Miss</t>
   </si>
   <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Oregon</t>
-  </si>
-  <si>
     <t>Iowa St</t>
   </si>
   <si>
@@ -109,16 +73,46 @@
     <t>TCU</t>
   </si>
   <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
     <t>Washington</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Utah</t>
   </si>
 </sst>
 </file>
@@ -478,10 +472,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,10 +496,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45598.458333333336</v>
+        <v>45605.458333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -513,157 +507,149 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45598.458333333336</v>
+        <v>45605.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45598.458333333336</v>
+        <v>45605.604166666664</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45598.458333333336</v>
+        <v>45605.604166666664</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45598.489583333336</v>
+        <v>45605.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45598.604166666664</v>
+        <v>45605.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45598.604166666664</v>
+        <v>45605.625</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45598.604166666664</v>
+        <v>45605.635416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45598.75</v>
+        <v>45605.75</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45598.770833333336</v>
+        <v>45605.75</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45598.770833333336</v>
+        <v>45605.770833333336</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45598.770833333336</v>
+        <v>45605.78125</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45598.78125</v>
+        <v>45605.791666666664</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45598.791666666664</v>
+        <v>45605.885416666664</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45598.791666666664</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
+      <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17"/>
@@ -673,6 +659,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B20222-3E84-4DDC-9A4C-EB2311799646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C343309E-49EF-40E8-A94F-9C3BBE9E2770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>date</t>
   </si>
@@ -37,82 +37,70 @@
     <t>S Carolina</t>
   </si>
   <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
     <t>Clemson</t>
   </si>
   <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>LSU</t>
   </si>
   <si>
-    <t>OU</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
     <t>BYU</t>
   </si>
   <si>
     <t>Utah</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baylor </t>
+  </si>
+  <si>
+    <t>West Virgina</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Washigton</t>
   </si>
 </sst>
 </file>
@@ -475,7 +463,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,157 +484,141 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45605.458333333336</v>
+        <v>45611.833333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45605.458333333336</v>
+        <v>45612.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45605.604166666664</v>
+        <v>45612.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45605.604166666664</v>
+        <v>45612.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45605.604166666664</v>
+        <v>45612.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45605.604166666664</v>
+        <v>45612.625</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45605.625</v>
+        <v>45612.625</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45605.635416666664</v>
+        <v>45612.635416666664</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45605.75</v>
+        <v>45612.625</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45605.75</v>
+        <v>45612.625</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45605.770833333336</v>
+        <v>45612.625</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45605.78125</v>
+        <v>45612.625</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45605.791666666664</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45605.885416666664</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
+      <c r="A15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C343309E-49EF-40E8-A94F-9C3BBE9E2770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F805D5E6-F2DB-43FC-9A6B-7FE7B8BB2F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="180" windowWidth="28815" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,6 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -61,46 +52,55 @@
     <t>BYU</t>
   </si>
   <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baylor </t>
-  </si>
-  <si>
-    <t>West Virgina</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>Pittsburgh</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Washigton</t>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Louisville</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,134 +484,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45611.833333333336</v>
+        <v>45619.458333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45612.458333333336</v>
+        <v>45619.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45612.458333333336</v>
+        <v>45619.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45612.458333333336</v>
+        <v>45619.604166666664</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45612.604166666664</v>
+        <v>45619.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45612.625</v>
+        <v>45619.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45612.625</v>
+        <v>45619.625</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45612.635416666664</v>
+        <v>45619.635416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45612.625</v>
+        <v>45619.75</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45612.625</v>
+        <v>45619.770833333336</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45612.625</v>
+        <v>45619.770833333336</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45612.625</v>
+        <v>45619.78125</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F805D5E6-F2DB-43FC-9A6B-7FE7B8BB2F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB4988-BD11-4521-BF48-B762B913F613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="180" windowWidth="28815" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -31,57 +44,24 @@
     <t>home</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>LSU</t>
   </si>
   <si>
     <t>Missouri</t>
   </si>
   <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
     <t>Arizona St</t>
   </si>
   <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Mississippi St</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
     <t>Notre Dame</t>
   </si>
   <si>
@@ -101,6 +81,57 @@
   </si>
   <si>
     <t>Louisville</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
   </si>
 </sst>
 </file>
@@ -460,10 +491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,144 +515,168 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45619.458333333336</v>
+        <v>45625.458333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45619.458333333336</v>
+        <v>45625.770833333336</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45619.458333333336</v>
+        <v>45626.458333333336</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45619.604166666664</v>
+        <v>45626.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45619.604166666664</v>
+        <v>45626.458333333336</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45619.604166666664</v>
+        <v>45626.458333333336</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45619.625</v>
+        <v>45626.458333333336</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45619.635416666664</v>
+        <v>45626.604166666664</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45619.75</v>
+        <v>45626.604166666664</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45619.770833333336</v>
+        <v>45626.604166666664</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45619.770833333336</v>
+        <v>45626.604166666664</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45619.78125</v>
+        <v>45626.604166666664</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14"/>
+      <c r="A14" s="1">
+        <v>45626.75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15"/>
+      <c r="A15" s="1">
+        <v>45626.770833333336</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16"/>
+      <c r="A16" s="1">
+        <v>45626.770833333336</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17"/>
@@ -637,6 +692,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB4988-BD11-4521-BF48-B762B913F613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81CED0-5419-4DA0-92E9-17A2AEAB05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -47,91 +47,25 @@
     <t>Texas</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>Notre Dame</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
     <t>Clemson</t>
   </si>
   <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
   </si>
 </sst>
 </file>
@@ -494,15 +428,15 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2"/>
+    <col min="1" max="1" width="18.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,190 +447,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45625.458333333336</v>
+        <v>45646.791666666664</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45625.770833333336</v>
+        <v>45647.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45626.458333333336</v>
+        <v>45647.625</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45626.458333333336</v>
+        <v>45647.791666666664</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45626.458333333336</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45626.458333333336</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45626.458333333336</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45626.604166666664</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45626.604166666664</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45626.604166666664</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45626.604166666664</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45626.604166666664</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45626.75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45626.770833333336</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45626.770833333336</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23"/>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81CED0-5419-4DA0-92E9-17A2AEAB05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9EA1EF-6EBB-4B90-ABC3-DBBC78261248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,22 +50,22 @@
     <t>Notre Dame</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
     <t>Penn St</t>
   </si>
   <si>
     <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
 </sst>
 </file>
@@ -428,15 +428,15 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="2"/>
+    <col min="1" max="1" width="18.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,102 +447,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45646.791666666664</v>
+        <v>45657.770833333336</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45647.458333333336</v>
+        <v>45658.5</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45647.625</v>
+        <v>45658.666666666664</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45647.791666666664</v>
+        <v>45658.822916666664</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23"/>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9EA1EF-6EBB-4B90-ABC3-DBBC78261248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DEFED7-4209-439D-9CF0-C0DFD96E2054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -54,18 +54,6 @@
   </si>
   <si>
     <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Georgia</t>
   </si>
 </sst>
 </file>
@@ -425,10 +413,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,47 +437,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45657.770833333336</v>
+        <v>45666.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45658.5</v>
+        <v>45667.770833333336</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45658.666666666664</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45658.822916666664</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6"/>
@@ -538,12 +510,6 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DEFED7-4209-439D-9CF0-C0DFD96E2054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261B6350-AFE8-44E1-892E-E76F6791784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="810" windowWidth="25560" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -44,13 +44,7 @@
     <t>home</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Penn St</t>
   </si>
   <si>
     <t>Ohio St</t>
@@ -413,10 +407,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,25 +431,17 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45666.770833333336</v>
+        <v>45677.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45667.770833333336</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -507,9 +493,6 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\Apps\cfpicks\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261B6350-AFE8-44E1-892E-E76F6791784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6FAEE-2CDF-4829-BE94-5C8475C35FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="810" windowWidth="25560" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -48,6 +48,60 @@
   </si>
   <si>
     <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
   </si>
 </sst>
 </file>
@@ -407,15 +461,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2"/>
+    <col min="1" max="1" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -431,68 +485,113 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45677.770833333336</v>
+        <v>45897.833333333336</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45898.791666666664</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45898.791666666664</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45899.458333333336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45899.604166666664</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45899.770833333336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45899.916666666664</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45900.583333333336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45900.770833333336</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10"/>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
+      <c r="A11" s="1">
+        <v>45901.791666666664</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6FAEE-2CDF-4829-BE94-5C8475C35FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D998B2A9-46D7-4532-A06F-4ACDE696D3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -44,64 +44,70 @@
     <t>home</t>
   </si>
   <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
     <t>Virginia Tech</t>
   </si>
   <si>
-    <t>South Carolina</t>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>South Florida</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Texas St</t>
+  </si>
+  <si>
+    <t>UTSA</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,62 +491,62 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45897.833333333336</v>
+        <v>45906.458333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45898.791666666664</v>
+        <v>45906.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45898.791666666664</v>
+        <v>45906.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45899.458333333336</v>
+        <v>45906.489583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45899.604166666664</v>
+        <v>45906.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45899.770833333336</v>
+        <v>45906.604166666664</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -551,46 +557,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45899.916666666664</v>
+        <v>45906.604166666664</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45900.583333333336</v>
+        <v>45906.635416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45900.770833333336</v>
+        <v>45906.770833333336</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45901.791666666664</v>
+        <v>45906.770833333336</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45906.770833333336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D998B2A9-46D7-4532-A06F-4ACDE696D3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC828E0B-696D-4480-9D03-BFD1ED2FD274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,70 +44,70 @@
     <t>home</t>
   </si>
   <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
     <t>Ole Miss</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
     <t>South Florida</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Mississippi St</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Texas St</t>
-  </si>
-  <si>
-    <t>UTSA</t>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Houston</t>
   </si>
 </sst>
 </file>
@@ -467,10 +467,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,124 +491,127 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45906.458333333336</v>
+        <v>45912.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45906.458333333336</v>
+        <v>45912.833333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45906.458333333336</v>
+        <v>45913.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45906.489583333336</v>
+        <v>45913.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45906.604166666664</v>
+        <v>45913.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45906.604166666664</v>
+        <v>45913.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45906.604166666664</v>
+        <v>45913.645833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45906.635416666664</v>
+        <v>45913.75</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45906.770833333336</v>
+        <v>45913.770833333336</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45906.770833333336</v>
+        <v>45913.770833333336</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45906.770833333336</v>
+        <v>45913.78125</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC828E0B-696D-4480-9D03-BFD1ED2FD274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF38704-7A9A-4205-9C98-C513CB0CB732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,48 +44,9 @@
     <t>home</t>
   </si>
   <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>South Florida</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
     <t>West Virginia</t>
   </si>
   <si>
@@ -95,19 +56,58 @@
     <t>Arkansas</t>
   </si>
   <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
     <t>South Carolina</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Houston</t>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Nesbraska</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
   </si>
 </sst>
 </file>
@@ -467,10 +467,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,29 +491,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45912.770833333336</v>
+        <v>45920.458333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45912.833333333336</v>
+        <v>45920.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45913.458333333336</v>
+        <v>45920.458333333336</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -524,32 +524,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45913.458333333336</v>
+        <v>45920.604166666664</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45913.604166666664</v>
+        <v>45920.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45913.604166666664</v>
+        <v>45920.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45913.645833333336</v>
+        <v>45920.708333333336</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -568,50 +568,53 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45913.75</v>
+        <v>45920.75</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45913.770833333336</v>
+        <v>45920.770833333336</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45913.770833333336</v>
+        <v>45920.770833333336</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45913.78125</v>
+        <v>45920.770833333336</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF38704-7A9A-4205-9C98-C513CB0CB732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6457748-E868-4DBA-9DEC-EE5D6B72B391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -44,70 +44,94 @@
     <t>home</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
     <t>South Carolina</t>
   </si>
   <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
     <t>TCU</t>
   </si>
   <si>
-    <t>Memphis</t>
-  </si>
-  <si>
     <t>Auburn</t>
   </si>
   <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Nesbraska</t>
-  </si>
-  <si>
     <t>UCF</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
     <t>Arizona St</t>
   </si>
   <si>
-    <t>Baylor</t>
-  </si>
-  <si>
     <t>Illinois</t>
   </si>
   <si>
     <t>Indiana</t>
   </si>
   <si>
-    <t>North Carolina</t>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Iowa</t>
   </si>
 </sst>
 </file>
@@ -467,10 +491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,130 +515,171 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45920.458333333336</v>
+        <v>45926.75</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45920.458333333336</v>
+        <v>45926.833333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45920.458333333336</v>
+        <v>45927.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45920.604166666664</v>
+        <v>45927.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45920.604166666664</v>
+        <v>45927.458333333336</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45920.604166666664</v>
+        <v>45927.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45920.708333333336</v>
+        <v>45927.604166666664</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45920.75</v>
+        <v>45927.604166666664</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45920.770833333336</v>
+        <v>45927.604166666664</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45920.770833333336</v>
+        <v>45927.635416666664</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45920.770833333336</v>
+        <v>45927.75</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13"/>
+      <c r="A13" s="1">
+        <v>45927.770833333336</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>45927.770833333336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45927.78125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45927.885416666664</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6457748-E868-4DBA-9DEC-EE5D6B72B391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E076BAC-D46A-49DA-A06C-AE28DD232B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -44,94 +44,70 @@
     <t>home</t>
   </si>
   <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
     <t>UCF</t>
   </si>
   <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>Florida St</t>
   </si>
   <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
     <t>Kansas St</t>
   </si>
   <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>Mississippi St</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>Iowa St</t>
   </si>
   <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Iowa</t>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Michigan St</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Kansas</t>
   </si>
 </sst>
 </file>
@@ -491,10 +467,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,171 +491,124 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45926.75</v>
+        <v>45934.458333333336</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45926.833333333336</v>
+        <v>45934.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45927.458333333336</v>
+        <v>45934.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45927.458333333336</v>
+        <v>45934.604166666664</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45927.458333333336</v>
+        <v>45934.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45927.604166666664</v>
+        <v>45934.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45927.604166666664</v>
+        <v>45934.625</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45927.604166666664</v>
+        <v>45934.75</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45927.604166666664</v>
+        <v>45934.770833333336</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45927.635416666664</v>
+        <v>45934.770833333336</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45927.75</v>
+        <v>45934.770833333336</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45927.770833333336</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45927.770833333336</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45927.78125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45927.885416666664</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E076BAC-D46A-49DA-A06C-AE28DD232B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7AA670-804D-420A-9BF7-DDA07E9BAA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="735" windowWidth="27585" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -47,21 +47,12 @@
     <t>UCF</t>
   </si>
   <si>
-    <t>Florida St</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
     <t>Kansas St</t>
   </si>
   <si>
-    <t>Mississippi St</t>
-  </si>
-  <si>
     <t>Iowa St</t>
   </si>
   <si>
@@ -77,37 +68,70 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Michigan St</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
     <t>Texas Tech</t>
   </si>
   <si>
-    <t>Houston</t>
-  </si>
-  <si>
     <t>Kansas</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arizona St</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
   </si>
 </sst>
 </file>
@@ -467,10 +491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,98 +515,98 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45934.458333333336</v>
+        <v>45941.458333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45934.458333333336</v>
+        <v>45941.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45934.458333333336</v>
+        <v>45941.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45934.604166666664</v>
+        <v>45941.604166666664</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45934.604166666664</v>
+        <v>45941.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45934.604166666664</v>
+        <v>45941.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45934.625</v>
+        <v>45941.604166666664</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45934.75</v>
+        <v>45941.635416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45934.770833333336</v>
+        <v>45941.75</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -590,24 +614,68 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45934.770833333336</v>
+        <v>45941.770833333336</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45934.770833333336</v>
+        <v>45941.770833333336</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45941.770833333336</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45941.78125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45941.791666666664</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45941.885416666664</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7AA670-804D-420A-9BF7-DDA07E9BAA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543A2974-765E-4868-9744-4229D0C96007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="735" windowWidth="27585" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,24 +44,12 @@
     <t>home</t>
   </si>
   <si>
-    <t>UCF</t>
-  </si>
-  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -71,30 +59,12 @@
     <t>Texas Tech</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>TCU</t>
   </si>
   <si>
@@ -122,9 +92,6 @@
     <t>Utah</t>
   </si>
   <si>
-    <t>Michigan</t>
-  </si>
-  <si>
     <t>USC</t>
   </si>
   <si>
@@ -132,6 +99,39 @@
   </si>
   <si>
     <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,167 +515,167 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45941.458333333336</v>
+        <v>45947.791666666664</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45941.458333333336</v>
+        <v>45948.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45941.458333333336</v>
+        <v>45948.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45941.604166666664</v>
+        <v>45948.458333333336</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45941.604166666664</v>
+        <v>45948.458333333336</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45941.604166666664</v>
+        <v>45948.489583333336</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45941.604166666664</v>
+        <v>45948.604166666664</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45941.635416666664</v>
+        <v>45948.604166666664</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45941.75</v>
+        <v>45948.625</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45941.770833333336</v>
+        <v>45948.635416666664</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45941.770833333336</v>
+        <v>45948.75</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45941.770833333336</v>
+        <v>45948.770833333336</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45941.78125</v>
+        <v>45948.770833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45941.791666666664</v>
+        <v>45948.78125</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45941.885416666664</v>
+        <v>45948.791666666664</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543A2974-765E-4868-9744-4229D0C96007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91DC188-3FA5-4A5C-9E50-F0A0CA04469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1665" windowWidth="27585" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -44,33 +44,15 @@
     <t>home</t>
   </si>
   <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Auburn</t>
   </si>
   <si>
@@ -83,42 +65,24 @@
     <t>BYU</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>Arizona St</t>
   </si>
   <si>
     <t>Utah</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
     <t>Arkansas</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
     <t>Houston</t>
   </si>
   <si>
@@ -131,7 +95,37 @@
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Notre Dame</t>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>South Florida</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Kansas St</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>A&amp;M</t>
+  </si>
+  <si>
+    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -494,7 +488,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G16" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,168 +509,160 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45947.791666666664</v>
+        <v>45955.458333333336</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45948.458333333336</v>
+        <v>45955.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45948.458333333336</v>
+        <v>45955.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45948.458333333336</v>
+        <v>45955.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45948.458333333336</v>
+        <v>45955.489583333336</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45948.489583333336</v>
+        <v>45955.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45948.604166666664</v>
+        <v>45955.604166666664</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45948.604166666664</v>
+        <v>45955.604166666664</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45948.625</v>
+        <v>45955.625</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45948.635416666664</v>
+        <v>45955.635416666664</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45948.75</v>
+        <v>45955.770833333336</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45948.770833333336</v>
+        <v>45955.78125</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45948.770833333336</v>
+        <v>45955.791666666664</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45948.78125</v>
+        <v>45955.885416666664</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45948.791666666664</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91DC188-3FA5-4A5C-9E50-F0A0CA04469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18EE2D0-6565-4820-A29E-E6D2007AF36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1665" windowWidth="27585" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,30 +44,15 @@
     <t>home</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
     <t>Auburn</t>
   </si>
   <si>
     <t>South Carolina</t>
   </si>
   <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Arizona St</t>
-  </si>
-  <si>
     <t>Utah</t>
   </si>
   <si>
@@ -83,9 +68,6 @@
     <t>Baylor</t>
   </si>
   <si>
-    <t>Houston</t>
-  </si>
-  <si>
     <t>Ole Miss</t>
   </si>
   <si>
@@ -98,34 +80,52 @@
     <t>OU</t>
   </si>
   <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>South Florida</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
     <t>Kansas St</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
     <t>Iowa St</t>
   </si>
   <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>A&amp;M</t>
-  </si>
-  <si>
-    <t>Colorado</t>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>NC State</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G15:G16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,156 +509,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45955.458333333336</v>
+        <v>45962.458333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45955.458333333336</v>
+        <v>45962.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45955.458333333336</v>
+        <v>45962.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45955.458333333336</v>
+        <v>45962.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45955.489583333336</v>
+        <v>45962.5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45955.604166666664</v>
+        <v>45962.604166666664</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45955.604166666664</v>
+        <v>45962.604166666664</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45955.604166666664</v>
+        <v>45962.625</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45955.625</v>
+        <v>45962.75</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45955.635416666664</v>
+        <v>45962.770833333336</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45955.770833333336</v>
+        <v>45962.770833333336</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45955.78125</v>
+        <v>45962.770833333336</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45955.791666666664</v>
+        <v>45962.770833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45955.885416666664</v>
+        <v>45962.885416666664</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18EE2D0-6565-4820-A29E-E6D2007AF36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31BAAB0-370F-4590-93D3-4F5D7B8856D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -44,69 +44,24 @@
     <t>home</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Auburn</t>
   </si>
   <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
     <t>Mississippi St</t>
   </si>
   <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>Kansas St</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
     <t>Clemson</t>
   </si>
   <si>
     <t>UCF</t>
   </si>
   <si>
-    <t>ASU</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -116,16 +71,37 @@
     <t>Texas Tech</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>NC State</t>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>A&amp;M</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Florida St</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>UCLA</t>
   </si>
 </sst>
 </file>
@@ -488,7 +464,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,157 +485,125 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45962.458333333336</v>
+        <v>45968.791666666664</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45962.458333333336</v>
+        <v>45969.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45962.458333333336</v>
+        <v>45969.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45962.458333333336</v>
+        <v>45969.604166666664</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45962.5</v>
+        <v>45969.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45962.604166666664</v>
+        <v>45969.625</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45962.604166666664</v>
+        <v>45969.75</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45962.625</v>
+        <v>45969.770833333336</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45962.75</v>
+        <v>45969.770833333336</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45962.770833333336</v>
+        <v>45969.833333333336</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45962.770833333336</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45962.770833333336</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
+      <c r="A13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45962.770833333336</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
+      <c r="A14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45962.885416666664</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31BAAB0-370F-4590-93D3-4F5D7B8856D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F456BD7-9C96-4D08-8CC8-3F4BDA8CE5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -44,18 +44,9 @@
     <t>home</t>
   </si>
   <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
     <t>Mississippi St</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>Clemson</t>
   </si>
   <si>
@@ -71,12 +62,6 @@
     <t>Texas Tech</t>
   </si>
   <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
     <t>BYU</t>
   </si>
   <si>
@@ -92,16 +77,61 @@
     <t>Iowa</t>
   </si>
   <si>
-    <t>Florida St</t>
-  </si>
-  <si>
     <t>LSU</t>
   </si>
   <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>UCLA</t>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Miami</t>
   </si>
 </sst>
 </file>
@@ -461,10 +491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,128 +515,174 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45968.791666666664</v>
+        <v>45975.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45969.458333333336</v>
+        <v>45975.833333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45969.458333333336</v>
+        <v>45976.458333333336</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45969.604166666664</v>
+        <v>45976.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45969.604166666664</v>
+        <v>45976.458333333336</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45969.625</v>
+        <v>45976.458333333336</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45969.75</v>
+        <v>45976.489583333336</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45969.770833333336</v>
+        <v>45976.604166666664</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45969.770833333336</v>
+        <v>45976.604166666664</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45969.833333333336</v>
+        <v>45976.604166666664</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12"/>
+      <c r="A12" s="1">
+        <v>45976.604166666664</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13"/>
+      <c r="A13" s="1">
+        <v>45976.75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14"/>
+      <c r="A14" s="1">
+        <v>45976.770833333336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15"/>
+      <c r="A15" s="1">
+        <v>45976.78125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>45976.885416666664</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F456BD7-9C96-4D08-8CC8-3F4BDA8CE5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F240D56B-66C7-4FFC-B197-66C5663DAA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -44,69 +44,24 @@
     <t>home</t>
   </si>
   <si>
-    <t>Mississippi St</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
     <t>BYU</t>
   </si>
   <si>
-    <t>A&amp;M</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Louisville</t>
   </si>
   <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
     <t>Pittsburgh</t>
   </si>
   <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>Cincinnati</t>
   </si>
   <si>
@@ -116,9 +71,6 @@
     <t>OU</t>
   </si>
   <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -128,10 +80,22 @@
     <t>USC</t>
   </si>
   <si>
-    <t>NC State</t>
-  </si>
-  <si>
-    <t>Miami</t>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>SMU</t>
   </si>
 </sst>
 </file>
@@ -494,7 +458,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,168 +479,120 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45975.770833333336</v>
+        <v>45983.458333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45975.833333333336</v>
+        <v>45983.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45976.458333333336</v>
+        <v>45983.604166666664</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45976.458333333336</v>
+        <v>45983.604166666664</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45976.458333333336</v>
+        <v>45983.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45976.458333333336</v>
+        <v>45983.625</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45976.489583333336</v>
+        <v>45983.75</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45976.604166666664</v>
+        <v>45983.770833333336</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45976.604166666664</v>
+        <v>45983.791666666664</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45976.604166666664</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
+      <c r="A11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45976.604166666664</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45976.75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
+      <c r="A13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45976.770833333336</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
+      <c r="A14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45976.78125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45976.885416666664</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
+      <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F240D56B-66C7-4FFC-B197-66C5663DAA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A931CAF8-E7F5-463E-8E76-8741BE0BC993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Oregon</t>
   </si>
   <si>
-    <t>Louisville</t>
-  </si>
-  <si>
     <t>Pittsburgh</t>
   </si>
   <si>
@@ -77,25 +74,58 @@
     <t>TCU</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Houston</t>
-  </si>
-  <si>
     <t>Georgia Tech</t>
   </si>
   <si>
     <t>Tennessee</t>
   </si>
   <si>
-    <t>SMU</t>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>Mississippi St</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>A&amp;M</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>Michigan</t>
   </si>
 </sst>
 </file>
@@ -455,10 +485,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,117 +509,157 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45983.458333333336</v>
+        <v>45989.458333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45983.458333333336</v>
+        <v>45989.604166666664</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45983.604166666664</v>
+        <v>45989.770833333336</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45983.604166666664</v>
+        <v>45990.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45983.604166666664</v>
+        <v>45990.458333333336</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45983.625</v>
+        <v>45989.458333333336</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45983.75</v>
+        <v>45989.5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45983.770833333336</v>
+        <v>45989.604166666664</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45983.791666666664</v>
+        <v>45989.604166666664</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45989.604166666664</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45989.604166666664</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13"/>
+      <c r="A13" s="1">
+        <v>45989.604166666664</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14"/>
+      <c r="A14" s="1">
+        <v>45989.645833333336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15"/>
+      <c r="A15" s="1">
+        <v>45989.770833333336</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16"/>
@@ -598,7 +668,13 @@
       <c r="A17"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A931CAF8-E7F5-463E-8E76-8741BE0BC993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F98C40C-A9D3-40F0-8153-20E4C1B811A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="765" windowWidth="19200" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -44,88 +44,58 @@
     <t>home</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
     <t>BYU</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>Mississippi St</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>A&amp;M</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>UCF</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>FSU</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Auburn</t>
-  </si>
-  <si>
     <t>Ohio St</t>
   </si>
   <si>
-    <t>Michigan</t>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>Kennesaw St</t>
+  </si>
+  <si>
+    <t>Jacksonville St</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Boise St</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>Western Michigan</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Virginia</t>
   </si>
 </sst>
 </file>
@@ -488,7 +458,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,157 +479,117 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45989.458333333336</v>
+        <v>45996.75</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45989.604166666664</v>
+        <v>45996.75</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45989.770833333336</v>
+        <v>45996.791666666664</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45990.458333333336</v>
+        <v>45996.791666666664</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45990.458333333336</v>
+        <v>45997.458333333336</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45989.458333333336</v>
+        <v>45997.458333333336</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45989.5</v>
+        <v>45997.625</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45989.604166666664</v>
+        <v>45997.791666666664</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45989.604166666664</v>
+        <v>45997.791666666664</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45989.604166666664</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
+      <c r="A11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45989.604166666664</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45989.604166666664</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45989.645833333336</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
+      <c r="A14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45989.770833333336</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F98C40C-A9D3-40F0-8153-20E4C1B811A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD3B0FF-6369-41F1-9593-A17A1F95970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="765" windowWidth="19200" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>home</t>
   </si>
   <si>
-    <t>BYU</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -56,46 +53,34 @@
     <t>Ohio St</t>
   </si>
   <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>James Madison</t>
-  </si>
-  <si>
-    <t>Kennesaw St</t>
-  </si>
-  <si>
-    <t>Jacksonville St</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
     <t>Tulane</t>
   </si>
   <si>
-    <t>UNLV</t>
-  </si>
-  <si>
-    <t>Boise St</t>
-  </si>
-  <si>
     <t>Texas Tech</t>
   </si>
   <si>
-    <t>Miami OH</t>
-  </si>
-  <si>
-    <t>Western Michigan</t>
-  </si>
-  <si>
     <t>Indiana</t>
   </si>
   <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Virginia</t>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -455,10 +440,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,32 +464,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45996.75</v>
+        <v>46010.791666666664</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45996.75</v>
+        <v>46011.458333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45996.791666666664</v>
+        <v>46011.604166666664</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -512,7 +497,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45996.791666666664</v>
+        <v>46011.770833333336</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -523,64 +508,80 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45997.458333333336</v>
+        <v>46022.791666666664</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45997.458333333336</v>
+        <v>46023.458333333336</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45997.625</v>
+        <v>46023.625</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45997.791666666664</v>
+        <v>46023.791666666664</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45997.791666666664</v>
+        <v>46030.770833333336</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11"/>
+      <c r="A11" s="1">
+        <v>46031.770833333336</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12"/>
+      <c r="A12" s="1">
+        <v>46041.770833333336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13"/>
@@ -604,7 +605,10 @@
       <c r="A19"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/import.xlsx
+++ b/data/import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\Dev\cfpicks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD3B0FF-6369-41F1-9593-A17A1F95970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BD09A6-E0F4-4D27-B214-CA736EEC0297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,24 +464,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>46010.791666666664</v>
+        <v>46011.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>46011.458333333336</v>
+        <v>46010.791666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,62 +497,62 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>46011.770833333336</v>
+        <v>46011.458333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46022.791666666664</v>
+        <v>46023.458333333336</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>46023.458333333336</v>
+        <v>46023.625</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>46023.625</v>
+        <v>46023.791666666664</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>46023.791666666664</v>
+        <v>46022.791666666664</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>46030.770833333336</v>
+        <v>46031.770833333336</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>46031.770833333336</v>
+        <v>46030.770833333336</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
